--- a/JOCL/ArraySumBenchmark/src/MegaFlopsPlot.xlsx
+++ b/JOCL/ArraySumBenchmark/src/MegaFlopsPlot.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Senior_Design\JOCL\ArraySumBenchmark\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26480" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="GPU Chart" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,11 @@
     <sheet name="CPU Data" sheetId="3" r:id="rId3"/>
     <sheet name="GPU Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -93,106 +90,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -207,12 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -272,8 +269,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
-      <c:rotY val="70"/>
+      <c:rotY val="210"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -314,10 +312,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7921776672952192E-2"/>
-          <c:y val="0.14289038473671811"/>
-          <c:w val="0.84447668284278243"/>
-          <c:h val="0.68180657873335038"/>
+          <c:x val="0.0779217766729522"/>
+          <c:y val="0.142890384736718"/>
+          <c:w val="0.844476682842782"/>
+          <c:h val="0.68180657873335"/>
         </c:manualLayout>
       </c:layout>
       <c:surface3DChart>
@@ -351,70 +349,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,67 +427,67 @@
                   <c:v>5.077445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6527504999999998</c:v>
+                  <c:v>7.6527505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4470349999999996</c:v>
+                  <c:v>9.447035</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.67248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.576473999999999</c:v>
+                  <c:v>13.576474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.364157000000001</c:v>
+                  <c:v>15.364157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.814741000000001</c:v>
+                  <c:v>16.814741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.610520999999999</c:v>
+                  <c:v>18.610521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.923061000000001</c:v>
+                  <c:v>19.923061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.966007000000001</c:v>
+                  <c:v>20.966007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.985935000000001</c:v>
+                  <c:v>21.985935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.863039000000001</c:v>
+                  <c:v>22.863039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.130258999999999</c:v>
+                  <c:v>23.130259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.911293000000001</c:v>
+                  <c:v>22.911293</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.003544000000002</c:v>
+                  <c:v>24.003544</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.323091999999999</c:v>
+                  <c:v>24.323092</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>23.519924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.252275000000001</c:v>
+                  <c:v>24.252275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.291391000000001</c:v>
+                  <c:v>22.291391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.514479999999999</c:v>
+                  <c:v>22.51448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.112653999999999</c:v>
+                  <c:v>23.112654</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.444669999999999</c:v>
+                  <c:v>23.44467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,70 +522,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,49 +597,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>512.41643999999997</c:v>
+                  <c:v>512.41644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>761.71576000000005</c:v>
+                  <c:v>761.71576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>944.42330000000004</c:v>
+                  <c:v>944.4233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1144.8177000000001</c:v>
+                  <c:v>1144.8177</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1336.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1528.9752000000001</c:v>
+                  <c:v>1528.9752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1694.2108000000001</c:v>
+                  <c:v>1694.2108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1856.3689999999999</c:v>
+                  <c:v>1856.369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1979.9840999999999</c:v>
+                  <c:v>1979.9841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2087.4362999999998</c:v>
+                  <c:v>2087.4363</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2175.1466999999998</c:v>
+                  <c:v>2175.1467</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2277.42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2284.9735999999998</c:v>
+                  <c:v>2284.9736</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2284.1196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2360.2579999999998</c:v>
+                  <c:v>2360.258</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2427.5625</c:v>
@@ -650,19 +648,19 @@
                   <c:v>2351.2725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2383.0437000000002</c:v>
+                  <c:v>2383.0437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2237.2566000000002</c:v>
+                  <c:v>2237.2566</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2266.1779999999999</c:v>
+                  <c:v>2266.178</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2260.1475</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2303.0106999999998</c:v>
+                  <c:v>2303.0107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,70 +695,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,70 +770,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1017.9894399999999</c:v>
+                  <c:v>1017.98944</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1549.432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902.9481000000001</c:v>
+                  <c:v>1902.9481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2306.6849999999999</c:v>
+                  <c:v>2306.685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2700.7815000000001</c:v>
+                  <c:v>2700.7815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3038.8004999999998</c:v>
+                  <c:v>3038.8005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3348.0194999999999</c:v>
+                  <c:v>3348.0195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3651.5909999999999</c:v>
+                  <c:v>3651.591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3926.7602999999999</c:v>
+                  <c:v>3926.7603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4109.9539999999997</c:v>
+                  <c:v>4109.954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4339.4840000000004</c:v>
+                  <c:v>4339.484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4501.8896000000004</c:v>
+                  <c:v>4501.8896</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4573.84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4511.4423999999999</c:v>
+                  <c:v>4511.4424</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4750.9549999999999</c:v>
+                  <c:v>4750.955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4730.0595999999996</c:v>
+                  <c:v>4730.0596</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4648.5720000000001</c:v>
+                  <c:v>4648.572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4789.4340000000002</c:v>
+                  <c:v>4789.434</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4460.0810000000001</c:v>
+                  <c:v>4460.081</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4510.9769999999999</c:v>
+                  <c:v>4510.977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4524.8969999999999</c:v>
+                  <c:v>4524.897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4656.2964000000002</c:v>
+                  <c:v>4656.2964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,70 +868,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,70 +943,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1557.2306000000001</c:v>
+                  <c:v>1557.2306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2301.6799999999998</c:v>
+                  <c:v>2301.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2858.7253000000001</c:v>
+                  <c:v>2858.7253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3457.8393999999998</c:v>
+                  <c:v>3457.8394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4009.4926999999998</c:v>
+                  <c:v>4009.4927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4536.7719999999999</c:v>
+                  <c:v>4536.772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5016.0110000000004</c:v>
+                  <c:v>5016.011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5366.0140000000001</c:v>
+                  <c:v>5366.014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5847.9813999999997</c:v>
+                  <c:v>5847.9814</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6119.223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6404.4872999999998</c:v>
+                  <c:v>6404.4873</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6651.9170000000004</c:v>
+                  <c:v>6651.917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6703.4717000000001</c:v>
+                  <c:v>6703.4717</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6687.6587</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6963.3793999999998</c:v>
+                  <c:v>6963.3794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7239.2280000000001</c:v>
+                  <c:v>7239.228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6878.1073999999999</c:v>
+                  <c:v>6878.1074</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7135.049</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6576.8163999999997</c:v>
+                  <c:v>6576.8164</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6561.96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6744.3657000000003</c:v>
+                  <c:v>6744.3657</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6776.0529999999999</c:v>
+                  <c:v>6776.053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,70 +1041,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,67 +1119,67 @@
                   <c:v>2070.5798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3047.7550000000001</c:v>
+                  <c:v>3047.755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3781.8247000000001</c:v>
+                  <c:v>3781.8247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4577.5690000000004</c:v>
+                  <c:v>4577.569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5328.2219999999998</c:v>
+                  <c:v>5328.222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5981.9385000000002</c:v>
+                  <c:v>5981.9385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6644.3280000000004</c:v>
+                  <c:v>6644.328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7171.1943000000001</c:v>
+                  <c:v>7171.1943</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7721.549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8092.4189999999999</c:v>
+                  <c:v>8092.419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8435.4889999999996</c:v>
+                  <c:v>8435.489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8772.9419999999991</c:v>
+                  <c:v>8772.941999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8897.8529999999992</c:v>
+                  <c:v>8897.852999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8902.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9304.3340000000007</c:v>
+                  <c:v>9304.334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9317.8040000000001</c:v>
+                  <c:v>9317.804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9162.8919999999998</c:v>
+                  <c:v>9162.892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9333.0689999999995</c:v>
+                  <c:v>9333.069</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8709.6659999999993</c:v>
+                  <c:v>8709.665999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8749.5769999999993</c:v>
+                  <c:v>8749.576999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8928.2080000000005</c:v>
+                  <c:v>8928.208</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9096.4189999999999</c:v>
+                  <c:v>9096.419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,70 +1214,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,31 +1292,31 @@
                   <c:v>2561.8298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3742.3429999999998</c:v>
+                  <c:v>3742.343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4675.9652999999998</c:v>
+                  <c:v>4675.9653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5650.0033999999996</c:v>
+                  <c:v>5650.0034</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6514.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7485.6289999999999</c:v>
+                  <c:v>7485.629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8215.7019999999993</c:v>
+                  <c:v>8215.701999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8968.3279999999995</c:v>
+                  <c:v>8968.328</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9597.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9973.8610000000008</c:v>
+                  <c:v>9973.861000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10539.2</c:v>
@@ -1330,13 +1328,13 @@
                   <c:v>11010.047</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11055.244000000001</c:v>
+                  <c:v>11055.244</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>11391.859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11591.005999999999</c:v>
+                  <c:v>11591.006</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11355.419</c:v>
@@ -1391,70 +1389,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,28 +1464,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>3062.4373000000001</c:v>
+                  <c:v>3062.4373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4512.1080000000002</c:v>
+                  <c:v>4512.108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5641.5347000000002</c:v>
+                  <c:v>5641.5347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6784.0595999999996</c:v>
+                  <c:v>6784.0596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7821.7669999999998</c:v>
+                  <c:v>7821.767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8816.7659999999996</c:v>
+                  <c:v>8816.766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9863.9509999999991</c:v>
+                  <c:v>9863.950999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10616.531000000001</c:v>
+                  <c:v>10616.531</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11357.421</c:v>
@@ -1496,31 +1494,31 @@
                   <c:v>11950.328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12576.486000000001</c:v>
+                  <c:v>12576.486</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12956.485000000001</c:v>
+                  <c:v>12956.485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13043.262000000001</c:v>
+                  <c:v>13043.262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13205.300999999999</c:v>
+                  <c:v>13205.301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13491.486999999999</c:v>
+                  <c:v>13491.487</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13796.316000000001</c:v>
+                  <c:v>13796.316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13516.361999999999</c:v>
+                  <c:v>13516.362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13559.270500000001</c:v>
+                  <c:v>13559.2705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12834.968999999999</c:v>
+                  <c:v>12834.969</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12943.207</c:v>
@@ -1529,7 +1527,7 @@
                   <c:v>13011.35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13536.540999999999</c:v>
+                  <c:v>13536.541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,70 +1564,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,22 +1645,22 @@
                   <c:v>5225.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6540.5106999999998</c:v>
+                  <c:v>6540.5107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7874.5366000000004</c:v>
+                  <c:v>7874.5366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9088.2189999999991</c:v>
+                  <c:v>9088.218999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10312.262000000001</c:v>
+                  <c:v>10312.262</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11249.4375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12291.699000000001</c:v>
+                  <c:v>12291.699</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13048.98</c:v>
@@ -1677,7 +1675,7 @@
                   <c:v>14980.107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15185.504000000001</c:v>
+                  <c:v>15185.504</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>15109.812</c:v>
@@ -1686,7 +1684,7 @@
                   <c:v>15750.56</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15930.684999999999</c:v>
+                  <c:v>15930.685</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15639.314</c:v>
@@ -1701,10 +1699,10 @@
                   <c:v>14780.132</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15092.684999999999</c:v>
+                  <c:v>15092.685</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15178.584000000001</c:v>
+                  <c:v>15178.584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,70 +1739,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,7 +1817,7 @@
                   <c:v>4067.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5917.8789999999999</c:v>
+                  <c:v>5917.879</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7429.7954</c:v>
@@ -1828,10 +1826,10 @@
                   <c:v>8933.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10371.191999999999</c:v>
+                  <c:v>10371.192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11687.816000000001</c:v>
+                  <c:v>11687.816</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12861.06</c:v>
@@ -1843,43 +1841,43 @@
                   <c:v>15008.383</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15702.246999999999</c:v>
+                  <c:v>15702.247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16339.727000000001</c:v>
+                  <c:v>16339.727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16864.813999999998</c:v>
+                  <c:v>16864.814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17157.583999999999</c:v>
+                  <c:v>17157.584</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>17374.338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17676.344000000001</c:v>
+                  <c:v>17676.344</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18233.205000000002</c:v>
+                  <c:v>18233.205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17508.513999999999</c:v>
+                  <c:v>17508.514</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17751.146000000001</c:v>
+                  <c:v>17751.146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16634.434000000001</c:v>
+                  <c:v>16634.434</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>16915.266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17056.521000000001</c:v>
+                  <c:v>17056.521</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17595.067999999999</c:v>
+                  <c:v>17595.068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,70 +1914,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,16 +1989,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>4527.6063999999997</c:v>
+                  <c:v>4527.6064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6609.3680000000004</c:v>
+                  <c:v>6609.368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8282.6810000000005</c:v>
+                  <c:v>8282.681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9892.4390000000003</c:v>
+                  <c:v>9892.439</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11515.403</c:v>
@@ -2018,37 +2016,37 @@
                   <c:v>16480.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17536.092000000001</c:v>
+                  <c:v>17536.092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18226.991999999998</c:v>
+                  <c:v>18226.992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18927.976999999999</c:v>
+                  <c:v>18927.977</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19177.447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19346.241999999998</c:v>
+                  <c:v>19346.242</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20054.011999999999</c:v>
+                  <c:v>20054.012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20105.223000000002</c:v>
+                  <c:v>20105.223</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>19640.002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19846.342000000001</c:v>
+                  <c:v>19846.342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18635.773000000001</c:v>
+                  <c:v>18635.773</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18631.741999999998</c:v>
+                  <c:v>18631.742</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>19017.21</c:v>
@@ -2091,70 +2089,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,13 +2164,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>5050.5492999999997</c:v>
+                  <c:v>5050.5493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7303.9696999999996</c:v>
+                  <c:v>7303.9697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9190.0609999999997</c:v>
+                  <c:v>9190.061</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11144.349</c:v>
@@ -2181,19 +2179,19 @@
                   <c:v>12788.839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14230.709000000001</c:v>
+                  <c:v>14230.709</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15770.793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16943.129000000001</c:v>
+                  <c:v>16943.129</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18474.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19213.611000000001</c:v>
+                  <c:v>19213.611</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20224.662</c:v>
@@ -2208,28 +2206,28 @@
                   <c:v>21267.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21805.684000000001</c:v>
+                  <c:v>21805.684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22599.021000000001</c:v>
+                  <c:v>22599.021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21511.226999999999</c:v>
+                  <c:v>21511.227</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>21979.645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20545.388999999999</c:v>
+                  <c:v>20545.389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20758.099999999999</c:v>
+                  <c:v>20758.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20647.701000000001</c:v>
+                  <c:v>20647.701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21523.653999999999</c:v>
+                  <c:v>21523.654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,12 +2421,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="333147736"/>
-        <c:axId val="333148128"/>
-        <c:axId val="481984616"/>
+        <c:axId val="2059230856"/>
+        <c:axId val="2058220040"/>
+        <c:axId val="2058226200"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="333147736"/>
+        <c:axId val="2059230856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333148128"/>
+        <c:crossAx val="2058220040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,12 +2503,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333148128"/>
+        <c:axId val="2058220040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2575,12 +2573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333147736"/>
+        <c:crossAx val="2059230856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="481984616"/>
+        <c:axId val="2058226200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,8 +2609,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49661524063936574"/>
-              <c:y val="0.82838048626912231"/>
+              <c:x val="0.496615240639366"/>
+              <c:y val="0.828380486269122"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2653,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333148128"/>
+        <c:crossAx val="2058220040"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2881,6 +2879,7 @@
       <c:rotX val="15"/>
       <c:rotY val="70"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2921,10 +2920,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11621573750676013"/>
-          <c:y val="7.966209489486363E-2"/>
-          <c:w val="0.72278647548799668"/>
-          <c:h val="0.76176998244685901"/>
+          <c:x val="0.11621573750676"/>
+          <c:y val="0.0796620948948636"/>
+          <c:w val="0.722786475487997"/>
+          <c:h val="0.761769982446859"/>
         </c:manualLayout>
       </c:layout>
       <c:surface3DChart>
@@ -2936,7 +2935,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$C$2:$C$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2958,70 +2957,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,19 +3032,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>297.57956000000001</c:v>
+                  <c:v>297.57956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>305.78591999999998</c:v>
+                  <c:v>305.78592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282.56319999999999</c:v>
+                  <c:v>282.5632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.46802000000002</c:v>
+                  <c:v>275.46802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>267.41269999999997</c:v>
+                  <c:v>267.4127</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>269.47742</c:v>
@@ -3054,34 +3053,34 @@
                   <c:v>269.2441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>271.59197999999998</c:v>
+                  <c:v>271.59198</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>276.55023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.17455999999999</c:v>
+                  <c:v>273.17456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272.21915000000001</c:v>
+                  <c:v>272.21915</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>275.33508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>269.38607999999999</c:v>
+                  <c:v>269.38608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>274.08535999999998</c:v>
+                  <c:v>274.08536</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>270.39066000000003</c:v>
+                  <c:v>270.39066</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>272.73577999999998</c:v>
+                  <c:v>272.73578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>270.11712999999997</c:v>
+                  <c:v>270.11713</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>269.48926</c:v>
@@ -3093,7 +3092,7 @@
                   <c:v>267.3338</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>263.23903999999999</c:v>
+                  <c:v>263.23904</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>261.45596</c:v>
@@ -3109,7 +3108,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$D$2:$D$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3131,70 +3130,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3217,7 @@
                   <c:v>1019.7298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1011.0555000000001</c:v>
+                  <c:v>1011.0555</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1017.3183</c:v>
@@ -3242,7 +3241,7 @@
                   <c:v>1014.25586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1012.3591300000001</c:v>
+                  <c:v>1012.35913</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1010.4475</c:v>
@@ -3260,16 +3259,16 @@
                   <c:v>1008.3522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>999.83339999999998</c:v>
+                  <c:v>999.8334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>999.58770000000004</c:v>
+                  <c:v>999.5877</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1001.9351</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>986.41010000000006</c:v>
+                  <c:v>986.4101000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,7 +3281,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$E$2:$E$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -3304,70 +3303,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3382,19 +3381,19 @@
                   <c:v>1068.0273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1068.3626999999999</c:v>
+                  <c:v>1068.3627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1070.0563999999999</c:v>
+                  <c:v>1070.0564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1068.0096000000001</c:v>
+                  <c:v>1068.0096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1070.9204999999999</c:v>
+                  <c:v>1070.9205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1068.0155999999999</c:v>
+                  <c:v>1068.0156</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1070.1404</c:v>
@@ -3403,34 +3402,34 @@
                   <c:v>1067.126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1067.3458000000001</c:v>
+                  <c:v>1067.3458</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1067.5171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>979.79016000000001</c:v>
+                  <c:v>979.79016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1066.4614999999999</c:v>
+                  <c:v>1066.4615</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1064.6967</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1047.0746999999999</c:v>
+                  <c:v>1047.0747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1050.6660999999999</c:v>
+                  <c:v>1050.6661</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1012.6107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1062.9260999999999</c:v>
+                  <c:v>1062.9261</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1055.8846000000001</c:v>
+                  <c:v>1055.8846</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1058.037</c:v>
@@ -3439,10 +3438,10 @@
                   <c:v>1064.0969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1060.4525000000001</c:v>
+                  <c:v>1060.4525</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1050.7388000000001</c:v>
+                  <c:v>1050.7388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,7 +3454,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$F$2:$F$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -3477,70 +3476,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,16 +3557,16 @@
                   <c:v>1084.5762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1083.9667999999999</c:v>
+                  <c:v>1083.9668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1085.1352999999999</c:v>
+                  <c:v>1085.1353</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1084.8921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1086.8954000000001</c:v>
+                  <c:v>1086.8954</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1079.7772</c:v>
@@ -3579,22 +3578,22 @@
                   <c:v>1091.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1088.0039999999999</c:v>
+                  <c:v>1088.004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1055.0651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1063.3119999999999</c:v>
+                  <c:v>1063.312</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1064.7973999999999</c:v>
+                  <c:v>1064.7974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1094.3619000000001</c:v>
+                  <c:v>1094.3619</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1076.0376000000001</c:v>
+                  <c:v>1076.0376</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1045.4655</c:v>
@@ -3603,7 +3602,7 @@
                   <c:v>1015.18713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1066.6311000000001</c:v>
+                  <c:v>1066.6311</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1065.8296</c:v>
@@ -3612,10 +3611,10 @@
                   <c:v>1082.9203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1083.1799000000001</c:v>
+                  <c:v>1083.1799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>995.50507000000005</c:v>
+                  <c:v>995.50507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,7 +3627,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$G$2:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -3650,70 +3649,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,7 +3724,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1083.6842999999999</c:v>
+                  <c:v>1083.6843</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1097.2664</c:v>
@@ -3737,7 +3736,7 @@
                   <c:v>1096.6984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.8909000000001</c:v>
+                  <c:v>1089.8909</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1049.9663</c:v>
@@ -3752,7 +3751,7 @@
                   <c:v>1090.9121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1097.2208000000001</c:v>
+                  <c:v>1097.2208</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1097.9102</c:v>
@@ -3761,10 +3760,10 @@
                   <c:v>1102.8625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1095.1628000000001</c:v>
+                  <c:v>1095.1628</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1095.3806999999999</c:v>
+                  <c:v>1095.3807</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1087.7311</c:v>
@@ -3773,19 +3772,19 @@
                   <c:v>1076.7601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1063.3910000000001</c:v>
+                  <c:v>1063.391</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1080.538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1036.1660999999999</c:v>
+                  <c:v>1036.1661</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1081.0327</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1055.2139999999999</c:v>
+                  <c:v>1055.214</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1091.0125</c:v>
@@ -3801,7 +3800,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$H$2:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -3823,70 +3822,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,19 +3897,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1108.0274999999999</c:v>
+                  <c:v>1108.0275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1108.1483000000001</c:v>
+                  <c:v>1108.1483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1106.2885000000001</c:v>
+                  <c:v>1106.2885</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1104.3921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103.6755000000001</c:v>
+                  <c:v>1103.6755</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1089.5472</c:v>
@@ -3919,46 +3918,46 @@
                   <c:v>1101.9719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1090.8945000000001</c:v>
+                  <c:v>1090.8945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1108.0546999999999</c:v>
+                  <c:v>1108.0547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1104.4884999999999</c:v>
+                  <c:v>1104.4885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1099.2891999999999</c:v>
+                  <c:v>1099.2892</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1107.2734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1101.3556000000001</c:v>
+                  <c:v>1101.3556</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1098.3456000000001</c:v>
+                  <c:v>1098.3456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>987.70776000000001</c:v>
+                  <c:v>987.70776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1099.1835000000001</c:v>
+                  <c:v>1099.1835</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1097.8556000000001</c:v>
+                  <c:v>1097.8556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1056.9896000000001</c:v>
+                  <c:v>1056.9896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1093.4132999999999</c:v>
+                  <c:v>1093.4133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1099.8157000000001</c:v>
+                  <c:v>1099.8157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1081.1714999999999</c:v>
+                  <c:v>1081.1715</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1093.867</c:v>
@@ -3974,7 +3973,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$I$2:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>600</c:v>
                 </c:pt>
@@ -3998,70 +3997,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,19 +4072,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1113.2802999999999</c:v>
+                  <c:v>1113.2803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1106.4291000000001</c:v>
+                  <c:v>1106.4291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1107.3552999999999</c:v>
+                  <c:v>1107.3553</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1092.1973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1111.1769999999999</c:v>
+                  <c:v>1111.177</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1106.9102</c:v>
@@ -4094,19 +4093,19 @@
                   <c:v>1100.3253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1110.1496999999999</c:v>
+                  <c:v>1110.1497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1105.5264999999999</c:v>
+                  <c:v>1105.5265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1113.2738999999999</c:v>
+                  <c:v>1113.2739</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1103.7944</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1064.7675999999999</c:v>
+                  <c:v>1064.7676</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1064.4186</c:v>
@@ -4118,25 +4117,25 @@
                   <c:v>1001.562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1102.7650000000001</c:v>
+                  <c:v>1102.765</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1071.1749</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1105.8638000000001</c:v>
+                  <c:v>1105.8638</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1106.0181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1089.6934000000001</c:v>
+                  <c:v>1089.6934</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1096.4512999999999</c:v>
+                  <c:v>1096.4513</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1107.7266999999999</c:v>
+                  <c:v>1107.7267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,7 +4148,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$J$2:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>700</c:v>
                 </c:pt>
@@ -4173,70 +4172,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,25 +4250,25 @@
                   <c:v>1108.6647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1111.7068999999999</c:v>
+                  <c:v>1111.7069</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1109.8895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1082.2820999999999</c:v>
+                  <c:v>1082.2821</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1110.3761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1110.8792000000001</c:v>
+                  <c:v>1110.8792</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1107.0715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1110.6043999999999</c:v>
+                  <c:v>1110.6044</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1107.8242</c:v>
@@ -4278,13 +4277,13 @@
                   <c:v>1110.7229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1105.9326000000001</c:v>
+                  <c:v>1105.9326</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1118.8671999999999</c:v>
+                  <c:v>1118.8672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1110.2548999999999</c:v>
+                  <c:v>1110.2549</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1110.2372</c:v>
@@ -4296,19 +4295,19 @@
                   <c:v>1113.6964</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1074.7295999999999</c:v>
+                  <c:v>1074.7296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1106.1914999999999</c:v>
+                  <c:v>1106.1915</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>990.80970000000002</c:v>
+                  <c:v>990.8097</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1110.2689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1070.3671999999999</c:v>
+                  <c:v>1070.3672</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1072.21</c:v>
@@ -4324,7 +4323,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$K$2:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>800</c:v>
                 </c:pt>
@@ -4348,70 +4347,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4423,34 +4422,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1088.4766999999999</c:v>
+                  <c:v>1088.4767</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1114.098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1102.2719999999999</c:v>
+                  <c:v>1102.272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1115.9960000000001</c:v>
+                  <c:v>1115.996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1110.162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1112.9251999999999</c:v>
+                  <c:v>1112.9252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1109.5211999999999</c:v>
+                  <c:v>1109.5212</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1100.921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1065.4354000000001</c:v>
+                  <c:v>1065.4354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1074.9879000000001</c:v>
+                  <c:v>1074.9879</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1107.5063</c:v>
@@ -4459,34 +4458,34 @@
                   <c:v>1104.232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1112.2829999999999</c:v>
+                  <c:v>1112.283</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1109.6768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1109.6898000000001</c:v>
+                  <c:v>1109.6898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1122.2764999999999</c:v>
+                  <c:v>1122.2765</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1113.2049999999999</c:v>
+                  <c:v>1113.205</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1110.0724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1114.2832000000001</c:v>
+                  <c:v>1114.2832</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1035.2039</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>996.53269999999998</c:v>
+                  <c:v>996.5327</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>917.79285000000004</c:v>
+                  <c:v>917.79285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4499,7 +4498,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$L$2:$L$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>900</c:v>
                 </c:pt>
@@ -4523,70 +4522,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4607,10 +4606,10 @@
                   <c:v>1118.1221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1081.8810000000001</c:v>
+                  <c:v>1081.881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1119.1251999999999</c:v>
+                  <c:v>1119.1252</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1112.7625</c:v>
@@ -4625,10 +4624,10 @@
                   <c:v>1076.4999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1115.6355000000001</c:v>
+                  <c:v>1115.6355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1111.3982000000001</c:v>
+                  <c:v>1111.3982</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1120.4395</c:v>
@@ -4637,7 +4636,7 @@
                   <c:v>1090.9819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1109.9155000000001</c:v>
+                  <c:v>1109.9155</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1115.4539</c:v>
@@ -4646,22 +4645,22 @@
                   <c:v>1116.2454</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1103.2179000000001</c:v>
+                  <c:v>1103.2179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>967.43050000000005</c:v>
+                  <c:v>967.4305000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1035.5114000000001</c:v>
+                  <c:v>1035.5114</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1104.4186999999999</c:v>
+                  <c:v>1104.4187</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1068.6989000000001</c:v>
+                  <c:v>1068.6989</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1118.3327999999999</c:v>
+                  <c:v>1118.3328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,7 +4673,7 @@
             <c:strRef>
               <c:f>'CPU Data'!$M$2:$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4698,70 +4697,70 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360000</c:v>
+                  <c:v>360000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490000</c:v>
+                  <c:v>490000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640000</c:v>
+                  <c:v>640000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>810000</c:v>
+                  <c:v>810000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1210000</c:v>
+                  <c:v>1.21E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440000</c:v>
+                  <c:v>1.44E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1690000</c:v>
+                  <c:v>1.69E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960000</c:v>
+                  <c:v>1.96E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2250000</c:v>
+                  <c:v>2.25E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560000</c:v>
+                  <c:v>2.56E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2890000</c:v>
+                  <c:v>2.89E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3240000</c:v>
+                  <c:v>3.24E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3610000</c:v>
+                  <c:v>3.61E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000000</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4410000</c:v>
+                  <c:v>4.41E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4840000</c:v>
+                  <c:v>4.84E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5290000</c:v>
+                  <c:v>5.29E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5760000</c:v>
+                  <c:v>5.76E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6250000</c:v>
+                  <c:v>6.25E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6760000</c:v>
+                  <c:v>6.76E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4773,10 +4772,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1115.9434000000001</c:v>
+                  <c:v>1115.9434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1116.0712000000001</c:v>
+                  <c:v>1116.0712</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1119.3905</c:v>
@@ -4785,25 +4784,25 @@
                   <c:v>1116.499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1116.1465000000001</c:v>
+                  <c:v>1116.1465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1122.8616999999999</c:v>
+                  <c:v>1122.8617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1112.1443999999999</c:v>
+                  <c:v>1112.1444</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1120.597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1117.8336999999999</c:v>
+                  <c:v>1117.8337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1115.7665999999999</c:v>
+                  <c:v>1115.7666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1106.4099000000001</c:v>
+                  <c:v>1106.4099</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1061.4902</c:v>
@@ -4815,28 +4814,28 @@
                   <c:v>1115.7898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1121.9172000000001</c:v>
+                  <c:v>1121.9172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1116.6995999999999</c:v>
+                  <c:v>1116.6996</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1019.28156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1067.7304999999999</c:v>
+                  <c:v>1067.7305</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1093.1835000000001</c:v>
+                  <c:v>1093.1835</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>991.05430000000001</c:v>
+                  <c:v>991.0543</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1112.6751999999999</c:v>
+                  <c:v>1112.6752</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1116.0510999999999</c:v>
+                  <c:v>1116.0511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,12 +5029,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="333431192"/>
-        <c:axId val="333435112"/>
-        <c:axId val="486679096"/>
+        <c:axId val="2059382312"/>
+        <c:axId val="2058375368"/>
+        <c:axId val="2058368984"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="333431192"/>
+        <c:axId val="2059382312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333435112"/>
+        <c:crossAx val="2058375368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5110,7 +5109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333435112"/>
+        <c:axId val="2058375368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333431192"/>
+        <c:crossAx val="2059382312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="486679096"/>
+        <c:axId val="2058368984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,7 +5250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333435112"/>
+        <c:crossAx val="2058375368"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5446,11 +5445,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5458,7 +5457,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5469,7 +5468,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8680824" cy="6305176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5496,7 +5495,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8683256" cy="6302006"/>
+    <xdr:ext cx="8569919" cy="5823415"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5562,7 +5561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5597,7 +5596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5774,7 +5773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5784,79 +5783,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1">
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>200</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>300</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>400</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>500</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>600</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>700</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>800</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <v>900</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3">
         <v>250000</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>1115.9434000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3">
         <f>600*600</f>
         <v>360000</v>
@@ -5933,7 +5932,7 @@
         <v>1116.0712000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3">
         <f>700*700</f>
         <v>490000</v>
@@ -5972,7 +5971,7 @@
         <v>1119.3905</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3">
         <f>800*800</f>
         <v>640000</v>
@@ -6011,7 +6010,7 @@
         <v>1116.499</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3">
         <f>900*900</f>
         <v>810000</v>
@@ -6050,7 +6049,7 @@
         <v>1116.1465000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3">
         <f>1000*1000</f>
         <v>1000000</v>
@@ -6089,7 +6088,7 @@
         <v>1122.8616999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3">
         <f>1100*1100</f>
         <v>1210000</v>
@@ -6128,7 +6127,7 @@
         <v>1112.1443999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3">
         <f>1200*1200</f>
         <v>1440000</v>
@@ -6167,7 +6166,7 @@
         <v>1120.597</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3">
         <f>1300*1300</f>
         <v>1690000</v>
@@ -6206,7 +6205,7 @@
         <v>1117.8336999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3">
         <f>1400*1400</f>
         <v>1960000</v>
@@ -6245,7 +6244,7 @@
         <v>1115.7665999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3">
         <f>1500*1500</f>
         <v>2250000</v>
@@ -6283,9 +6282,9 @@
       <c r="M14">
         <v>1106.4099000000001</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3">
         <f>1600*1600</f>
         <v>2560000</v>
@@ -6323,9 +6322,9 @@
       <c r="M15">
         <v>1061.4902</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3">
         <f>1700*1700</f>
         <v>2890000</v>
@@ -6363,9 +6362,9 @@
       <c r="M16">
         <v>1115.6323</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3">
         <f>1800*1800</f>
         <v>3240000</v>
@@ -6403,9 +6402,9 @@
       <c r="M17">
         <v>1115.7898</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3">
         <f>1900*1900</f>
         <v>3610000</v>
@@ -6443,9 +6442,9 @@
       <c r="M18">
         <v>1121.9172000000001</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3">
         <f>2000*2000</f>
         <v>4000000</v>
@@ -6483,9 +6482,9 @@
       <c r="M19">
         <v>1116.6995999999999</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="3">
         <f>2100*2100</f>
         <v>4410000</v>
@@ -6523,9 +6522,9 @@
       <c r="M20">
         <v>1019.28156</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="3">
         <f>2200*2200</f>
         <v>4840000</v>
@@ -6563,9 +6562,9 @@
       <c r="M21">
         <v>1067.7304999999999</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="3">
         <f>2300*2300</f>
         <v>5290000</v>
@@ -6603,9 +6602,9 @@
       <c r="M22">
         <v>1093.1835000000001</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="3">
         <f>2400*2400</f>
         <v>5760000</v>
@@ -6643,9 +6642,9 @@
       <c r="M23">
         <v>991.05430000000001</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="3">
         <f>2500*2500</f>
         <v>6250000</v>
@@ -6683,9 +6682,9 @@
       <c r="M24">
         <v>1112.6751999999999</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15" thickBot="1">
       <c r="B25" s="4">
         <f>2600*2600</f>
         <v>6760000</v>
@@ -6723,9 +6722,9 @@
       <c r="M25">
         <v>1116.0510999999999</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="C26">
         <v>258.70030000000003</v>
       </c>
@@ -6759,9 +6758,9 @@
       <c r="M26">
         <v>1123.3477</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="C27">
         <v>246.75812999999999</v>
       </c>
@@ -6795,9 +6794,9 @@
       <c r="M27">
         <v>1119.0540000000001</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="C28">
         <v>242.20189999999999</v>
       </c>
@@ -6831,9 +6830,9 @@
       <c r="M28">
         <v>962.87139999999999</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="C29">
         <v>248.08302</v>
       </c>
@@ -6867,9 +6866,9 @@
       <c r="M29">
         <v>1103.7173</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="C30">
         <v>237.60854</v>
       </c>
@@ -6903,9 +6902,9 @@
       <c r="M30">
         <v>1113.1439</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="C31">
         <v>238.24149</v>
       </c>
@@ -6939,9 +6938,9 @@
       <c r="M31">
         <v>1110.5139999999999</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="C32">
         <v>241.26214999999999</v>
       </c>
@@ -6975,9 +6974,9 @@
       <c r="M32">
         <v>997.54736000000003</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15">
       <c r="C33">
         <v>232.43776</v>
       </c>
@@ -7011,9 +7010,9 @@
       <c r="M33">
         <v>1114.7034000000001</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15">
       <c r="C34">
         <v>236.95733999999999</v>
       </c>
@@ -7047,9 +7046,9 @@
       <c r="M34">
         <v>1071.4861000000001</v>
       </c>
-      <c r="O34" s="9"/>
+      <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15">
       <c r="C35">
         <v>233.99023</v>
       </c>
@@ -7083,9 +7082,9 @@
       <c r="M35">
         <v>1094.4135000000001</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15">
       <c r="C36">
         <v>229.96391</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>1104.6161999999999</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15">
       <c r="C37">
         <v>222.23969</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>1083.5369000000001</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15">
       <c r="C38">
         <v>220.94931</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>1101.6829</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15">
       <c r="C39">
         <v>203.99606</v>
       </c>
@@ -7227,20 +7226,25 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7248,79 +7252,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1">
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>200</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>300</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>400</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>500</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>600</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>700</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>800</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <v>900</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3">
         <v>250000</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>5050.5492999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3">
         <f>600*600</f>
         <v>360000</v>
@@ -7397,7 +7401,7 @@
         <v>7303.9696999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3">
         <f>700*700</f>
         <v>490000</v>
@@ -7436,7 +7440,7 @@
         <v>9190.0609999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3">
         <f>800*800</f>
         <v>640000</v>
@@ -7475,85 +7479,85 @@
         <v>11144.349</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3">
         <f>900*900</f>
         <v>810000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>13.576473999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>1336.78</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>2700.7815000000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>4009.4926999999998</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>5328.2219999999998</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>6514.57</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="6">
         <v>7821.7669999999998</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="6">
         <v>9088.2189999999991</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <v>10371.191999999999</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <v>11515.403</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
         <v>12788.839</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3">
         <f>1000*1000</f>
         <v>1000000</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>15.364157000000001</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>1528.9752000000001</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>3038.8004999999998</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>4536.7719999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>5981.9385000000002</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>7485.6289999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>8816.7659999999996</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>10312.262000000001</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <v>11687.816000000001</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <v>13079.884</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <v>14230.709000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3">
         <f>1100*1100</f>
         <v>1210000</v>
@@ -7592,7 +7596,7 @@
         <v>15770.793</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3">
         <f>1200*1200</f>
         <v>1440000</v>
@@ -7631,7 +7635,7 @@
         <v>16943.129000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3">
         <f>1300*1300</f>
         <v>1690000</v>
@@ -7670,7 +7674,7 @@
         <v>18474.79</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3">
         <f>1400*1400</f>
         <v>1960000</v>
@@ -7709,7 +7713,7 @@
         <v>19213.611000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3">
         <f>1500*1500</f>
         <v>2250000</v>
@@ -7747,9 +7751,9 @@
       <c r="M14">
         <v>20224.662</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3">
         <f>1600*1600</f>
         <v>2560000</v>
@@ -7787,9 +7791,9 @@
       <c r="M15">
         <v>20797.873</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3">
         <f>1700*1700</f>
         <v>2890000</v>
@@ -7827,9 +7831,9 @@
       <c r="M16">
         <v>20758.97</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3">
         <f>1800*1800</f>
         <v>3240000</v>
@@ -7867,9 +7871,9 @@
       <c r="M17">
         <v>21267.7</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3">
         <f>1900*1900</f>
         <v>3610000</v>
@@ -7907,9 +7911,9 @@
       <c r="M18">
         <v>21805.684000000001</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3">
         <f>2000*2000</f>
         <v>4000000</v>
@@ -7947,9 +7951,9 @@
       <c r="M19">
         <v>22599.021000000001</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="3">
         <f>2100*2100</f>
         <v>4410000</v>
@@ -7987,9 +7991,9 @@
       <c r="M20">
         <v>21511.226999999999</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="3">
         <f>2200*2200</f>
         <v>4840000</v>
@@ -8027,9 +8031,9 @@
       <c r="M21">
         <v>21979.645</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="3">
         <f>2300*2300</f>
         <v>5290000</v>
@@ -8067,9 +8071,9 @@
       <c r="M22">
         <v>20545.388999999999</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="3">
         <f>2400*2400</f>
         <v>5760000</v>
@@ -8107,9 +8111,9 @@
       <c r="M23">
         <v>20758.099999999999</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="3">
         <f>2500*2500</f>
         <v>6250000</v>
@@ -8147,9 +8151,9 @@
       <c r="M24">
         <v>20647.701000000001</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15" thickBot="1">
       <c r="B25" s="4">
         <f>2600*2600</f>
         <v>6760000</v>
@@ -8187,9 +8191,9 @@
       <c r="M25">
         <v>21523.653999999999</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="C26">
         <v>23.457896999999999</v>
       </c>
@@ -8223,9 +8227,9 @@
       <c r="M26">
         <v>21248.63</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="C27">
         <v>27.900478</v>
       </c>
@@ -8259,9 +8263,9 @@
       <c r="M27">
         <v>25132.77</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="C28">
         <v>28.177855999999998</v>
       </c>
@@ -8295,9 +8299,9 @@
       <c r="M28">
         <v>25585.518</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="C29">
         <v>29.328389999999999</v>
       </c>
@@ -8331,9 +8335,9 @@
       <c r="M29">
         <v>26027.973000000002</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="C30">
         <v>29.125741999999999</v>
       </c>
@@ -8367,9 +8371,9 @@
       <c r="M30">
         <v>26206.557000000001</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="C31">
         <v>28.025258999999998</v>
       </c>
@@ -8403,9 +8407,9 @@
       <c r="M31">
         <v>24638.541000000001</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="C32">
         <v>26.708062999999999</v>
       </c>
@@ -8439,9 +8443,9 @@
       <c r="M32">
         <v>23871.936000000002</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15">
       <c r="C33">
         <v>27.491897999999999</v>
       </c>
@@ -8475,9 +8479,9 @@
       <c r="M33">
         <v>24589.537</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15">
       <c r="C34">
         <v>27.993615999999999</v>
       </c>
@@ -8511,9 +8515,9 @@
       <c r="M34">
         <v>24807.187999999998</v>
       </c>
-      <c r="O34" s="9"/>
+      <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15">
       <c r="C35">
         <v>29.135570000000001</v>
       </c>
@@ -8547,9 +8551,9 @@
       <c r="M35">
         <v>26851.648000000001</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15">
       <c r="C36">
         <v>30.474741000000002</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>27274.22</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15">
       <c r="C37">
         <v>31.277746</v>
       </c>
@@ -8634,6 +8638,11 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>